--- a/Caso_Base/KPIs_2025_Sim_4_Semanas.xlsx
+++ b/Caso_Base/KPIs_2025_Sim_4_Semanas.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxweinreich/Desktop/capstone/Caso_Base/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11434B-8EDC-F14D-B488-7186DA0163FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2180" yWindow="960" windowWidth="27080" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen KPIs" sheetId="1" r:id="rId1"/>
-    <sheet name="Demanda T1" sheetId="2" r:id="rId2"/>
-    <sheet name="Demanda T2" sheetId="3" r:id="rId3"/>
-    <sheet name="Quiebres T1" sheetId="4" r:id="rId4"/>
-    <sheet name="Órdenes T1" sheetId="5" r:id="rId5"/>
-    <sheet name="Precios T1" sheetId="6" r:id="rId6"/>
-    <sheet name="Ingresos T1" sheetId="7" r:id="rId7"/>
-    <sheet name="Quiebres T2" sheetId="8" r:id="rId8"/>
-    <sheet name="Órdenes T2" sheetId="9" r:id="rId9"/>
-    <sheet name="Precios T2" sheetId="10" r:id="rId10"/>
-    <sheet name="Ingresos T2" sheetId="11" r:id="rId11"/>
+    <sheet name="Inventarios Iniciales" sheetId="12" r:id="rId2"/>
+    <sheet name="Demanda T1" sheetId="2" r:id="rId3"/>
+    <sheet name="Demanda T2" sheetId="3" r:id="rId4"/>
+    <sheet name="Quiebres T1" sheetId="4" r:id="rId5"/>
+    <sheet name="Órdenes T1" sheetId="5" r:id="rId6"/>
+    <sheet name="Precios T1" sheetId="6" r:id="rId7"/>
+    <sheet name="Ingresos T1" sheetId="7" r:id="rId8"/>
+    <sheet name="Quiebres T2" sheetId="8" r:id="rId9"/>
+    <sheet name="Órdenes T2" sheetId="9" r:id="rId10"/>
+    <sheet name="Precios T2" sheetId="10" r:id="rId11"/>
+    <sheet name="Ingresos T2" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
   <si>
     <t>Tienda</t>
   </si>
@@ -93,13 +100,22 @@
   </si>
   <si>
     <t>Producto 10</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Inventario Inicial Tienda 1</t>
+  </si>
+  <si>
+    <t>Inventario Inicial Tienda 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +178,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +230,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -240,6 +264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -274,9 +299,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,14 +475,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -505,10 +544,10 @@
         <v>171019.9</v>
       </c>
       <c r="E2">
-        <v>2584.099999999997</v>
+        <v>2584.0999999999972</v>
       </c>
       <c r="F2">
-        <v>98.51149743093477</v>
+        <v>98.511497430934767</v>
       </c>
       <c r="G2">
         <v>1.560478238969329</v>
@@ -517,48 +556,48 @@
         <v>37</v>
       </c>
       <c r="I2">
-        <v>839072.6719560003</v>
+        <v>839072.67195600027</v>
       </c>
       <c r="J2">
         <v>19520</v>
       </c>
       <c r="K2">
-        <v>5740.197647201829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>5740.1976472018287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>5330279.416322707</v>
+        <v>5330279.4163227072</v>
       </c>
       <c r="C3">
         <v>153739</v>
       </c>
       <c r="D3">
-        <v>151857.3</v>
+        <v>151857.29999999999</v>
       </c>
       <c r="E3">
         <v>1881.700000000001</v>
       </c>
       <c r="F3">
-        <v>98.77604251361072</v>
+        <v>98.776042513610719</v>
       </c>
       <c r="G3">
-        <v>1.704956115723194</v>
+        <v>1.7049561157231941</v>
       </c>
       <c r="H3">
         <v>39</v>
       </c>
       <c r="I3">
-        <v>847066.4808400001</v>
+        <v>847066.48084000009</v>
       </c>
       <c r="J3">
         <v>21040</v>
       </c>
       <c r="K3">
-        <v>7221.160993256885</v>
+        <v>7221.1609932568854</v>
       </c>
     </row>
   </sheetData>
@@ -567,14 +606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -606,132 +645,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>38.2688990825688</v>
+        <v>4120.6000000000004</v>
       </c>
       <c r="B2">
-        <v>24.44596330275229</v>
+        <v>10095.9</v>
       </c>
       <c r="C2">
-        <v>40.39550458715597</v>
+        <v>5021.2</v>
       </c>
       <c r="D2">
-        <v>74.42119266055046</v>
+        <v>1720.6</v>
       </c>
       <c r="E2">
-        <v>32.95238532110092</v>
+        <v>1892</v>
       </c>
       <c r="F2">
-        <v>65.91477064220183</v>
+        <v>3205.3</v>
       </c>
       <c r="G2">
-        <v>91.43403669724772</v>
+        <v>7578.9000000000005</v>
       </c>
       <c r="H2">
-        <v>65.91477064220183</v>
+        <v>5087.3</v>
       </c>
       <c r="I2">
-        <v>42.52211009174312</v>
+        <v>834.5</v>
       </c>
       <c r="J2">
-        <v>23.38266055045872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>13810.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>30.61511926605504</v>
+        <v>63.27999999999993</v>
       </c>
       <c r="B3">
-        <v>19.55677064220183</v>
+        <v>65.620000000000076</v>
       </c>
       <c r="C3">
-        <v>32.31640366972478</v>
+        <v>857.90000000000009</v>
       </c>
       <c r="D3">
-        <v>59.53695412844037</v>
+        <v>-45.319999999999993</v>
       </c>
       <c r="E3">
-        <v>32.95238532110092</v>
+        <v>9719.2999999999993</v>
       </c>
       <c r="F3">
-        <v>52.73181651376147</v>
+        <v>239.34999999999991</v>
       </c>
       <c r="G3">
-        <v>73.14722935779818</v>
+        <v>393.54999999999973</v>
       </c>
       <c r="H3">
-        <v>52.73181651376147</v>
+        <v>666.34999999999991</v>
       </c>
       <c r="I3">
-        <v>42.52211009174312</v>
+        <v>971.75</v>
       </c>
       <c r="J3">
-        <v>18.70612844036697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>968.60000000000036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>38.2688990825688</v>
+        <v>4120.6000000000004</v>
       </c>
       <c r="B4">
-        <v>24.44596330275229</v>
+        <v>10095.9</v>
       </c>
       <c r="C4">
-        <v>40.39550458715597</v>
+        <v>5021.2</v>
       </c>
       <c r="D4">
-        <v>74.42119266055046</v>
+        <v>1720.6</v>
       </c>
       <c r="E4">
-        <v>26.36190825688074</v>
+        <v>756.85000000000036</v>
       </c>
       <c r="F4">
-        <v>65.91477064220183</v>
+        <v>3205.3</v>
       </c>
       <c r="G4">
-        <v>91.43403669724772</v>
+        <v>7578.9000000000005</v>
       </c>
       <c r="H4">
-        <v>65.91477064220183</v>
+        <v>5087.3</v>
       </c>
       <c r="I4">
-        <v>42.52211009174312</v>
+        <v>5816.5</v>
       </c>
       <c r="J4">
-        <v>23.38266055045872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>13810.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>30.61511926605504</v>
+        <v>516.25999999999976</v>
       </c>
       <c r="B5">
-        <v>19.55677064220183</v>
+        <v>1980.79</v>
       </c>
       <c r="C5">
-        <v>40.39550458715597</v>
+        <v>5021.2</v>
       </c>
       <c r="D5">
-        <v>74.42119266055046</v>
+        <v>1720.6</v>
       </c>
       <c r="E5">
-        <v>32.95238532110092</v>
+        <v>9719.2999999999993</v>
       </c>
       <c r="F5">
-        <v>52.73181651376147</v>
+        <v>3205.3</v>
       </c>
       <c r="G5">
-        <v>73.14722935779818</v>
+        <v>7578.9000000000005</v>
       </c>
       <c r="H5">
-        <v>52.73181651376147</v>
+        <v>627.02499999999964</v>
       </c>
       <c r="I5">
-        <v>42.52211009174312</v>
+        <v>5816.5</v>
       </c>
       <c r="J5">
-        <v>18.70612844036697</v>
+        <v>236.75999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -740,14 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -779,132 +818,305 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>77494.52064220182</v>
+        <v>38.268899082568801</v>
       </c>
       <c r="B2">
-        <v>163885.7379816514</v>
+        <v>24.44596330275229</v>
       </c>
       <c r="C2">
-        <v>157825.2364220184</v>
+        <v>40.395504587155969</v>
       </c>
       <c r="D2">
-        <v>61471.90513761468</v>
+        <v>74.42119266055046</v>
       </c>
       <c r="E2">
-        <v>124691.8260550459</v>
+        <v>32.95238532110092</v>
+      </c>
+      <c r="F2">
+        <v>65.91477064220183</v>
+      </c>
+      <c r="G2">
+        <v>91.43403669724772</v>
+      </c>
+      <c r="H2">
+        <v>65.91477064220183</v>
+      </c>
+      <c r="I2">
+        <v>42.522110091743123</v>
+      </c>
+      <c r="J2">
+        <v>23.38266055045872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30.615119266055039</v>
+      </c>
+      <c r="B3">
+        <v>19.55677064220183</v>
+      </c>
+      <c r="C3">
+        <v>32.316403669724778</v>
+      </c>
+      <c r="D3">
+        <v>59.536954128440371</v>
+      </c>
+      <c r="E3">
+        <v>32.95238532110092</v>
+      </c>
+      <c r="F3">
+        <v>52.731816513761473</v>
+      </c>
+      <c r="G3">
+        <v>73.147229357798182</v>
+      </c>
+      <c r="H3">
+        <v>52.731816513761473</v>
+      </c>
+      <c r="I3">
+        <v>42.522110091743123</v>
+      </c>
+      <c r="J3">
+        <v>18.706128440366971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>38.268899082568801</v>
+      </c>
+      <c r="B4">
+        <v>24.44596330275229</v>
+      </c>
+      <c r="C4">
+        <v>40.395504587155969</v>
+      </c>
+      <c r="D4">
+        <v>74.42119266055046</v>
+      </c>
+      <c r="E4">
+        <v>26.361908256880739</v>
+      </c>
+      <c r="F4">
+        <v>65.91477064220183</v>
+      </c>
+      <c r="G4">
+        <v>91.43403669724772</v>
+      </c>
+      <c r="H4">
+        <v>65.91477064220183</v>
+      </c>
+      <c r="I4">
+        <v>42.522110091743123</v>
+      </c>
+      <c r="J4">
+        <v>23.38266055045872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30.615119266055039</v>
+      </c>
+      <c r="B5">
+        <v>19.55677064220183</v>
+      </c>
+      <c r="C5">
+        <v>40.395504587155969</v>
+      </c>
+      <c r="D5">
+        <v>74.42119266055046</v>
+      </c>
+      <c r="E5">
+        <v>32.95238532110092</v>
+      </c>
+      <c r="F5">
+        <v>52.731816513761473</v>
+      </c>
+      <c r="G5">
+        <v>73.147229357798182</v>
+      </c>
+      <c r="H5">
+        <v>52.731816513761473</v>
+      </c>
+      <c r="I5">
+        <v>42.522110091743123</v>
+      </c>
+      <c r="J5">
+        <v>18.706128440366971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>77494.520642201824</v>
+      </c>
+      <c r="B2">
+        <v>163885.73798165139</v>
+      </c>
+      <c r="C2">
+        <v>157825.23642201841</v>
+      </c>
+      <c r="D2">
+        <v>61471.905137614682</v>
+      </c>
+      <c r="E2">
+        <v>124691.82605504589</v>
       </c>
       <c r="F2">
         <v>150615.2509174312</v>
       </c>
       <c r="G2">
-        <v>337025.8592660551</v>
+        <v>337025.85926605511</v>
       </c>
       <c r="H2">
-        <v>227142.2996330275</v>
+        <v>227142.29963302749</v>
       </c>
       <c r="I2">
-        <v>70969.40174311926</v>
+        <v>70969.401743119262</v>
       </c>
       <c r="J2">
         <v>172751.096146789</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>73843.66766972476</v>
       </c>
       <c r="B3">
-        <v>72751.18678899082</v>
+        <v>72751.186788990817</v>
       </c>
       <c r="C3">
-        <v>91455.42238532112</v>
+        <v>91455.422385321115</v>
       </c>
       <c r="D3">
-        <v>39770.68535779817</v>
+        <v>39770.685357798167</v>
       </c>
       <c r="E3">
         <v>125350.8737614679</v>
       </c>
       <c r="F3">
-        <v>73771.81130275229</v>
+        <v>73771.811302752292</v>
       </c>
       <c r="G3">
-        <v>342329.0333944955</v>
+        <v>342329.03339449549</v>
       </c>
       <c r="H3">
-        <v>156824.4223119266</v>
+        <v>156824.42231192661</v>
       </c>
       <c r="I3">
-        <v>47157.02009174311</v>
+        <v>47157.020091743107</v>
       </c>
       <c r="J3">
-        <v>156383.2337614679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>156383.23376146791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>92228.0467889908</v>
+        <v>92228.046788990803</v>
       </c>
       <c r="B4">
-        <v>179482.2625688073</v>
+        <v>179482.26256880729</v>
       </c>
       <c r="C4">
-        <v>168178.6042477064</v>
+        <v>168178.60424770639</v>
       </c>
       <c r="D4">
         <v>120934.4380733945</v>
       </c>
       <c r="E4">
-        <v>145965.8860183487</v>
+        <v>145965.88601834871</v>
       </c>
       <c r="F4">
-        <v>143891.9443119266</v>
+        <v>143891.94431192661</v>
       </c>
       <c r="G4">
-        <v>509196.1503669725</v>
+        <v>509196.15036697249</v>
       </c>
       <c r="H4">
-        <v>176783.4148623853</v>
+        <v>176783.41486238531</v>
       </c>
       <c r="I4">
-        <v>194921.3526605504</v>
+        <v>194921.35266055039</v>
       </c>
       <c r="J4">
-        <v>171535.1977981651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>171535.19779816511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>76231.64697247706</v>
+        <v>76231.646972477058</v>
       </c>
       <c r="B5">
-        <v>126199.8409541284</v>
+        <v>126199.84095412841</v>
       </c>
       <c r="C5">
-        <v>115935.0981651376</v>
+        <v>115935.09816513761</v>
       </c>
       <c r="D5">
-        <v>87817.00733944954</v>
+        <v>87817.007339449541</v>
       </c>
       <c r="E5">
-        <v>223417.1724770642</v>
+        <v>223417.17247706419</v>
       </c>
       <c r="F5">
-        <v>141374.0000733945</v>
+        <v>141374.00007339451</v>
       </c>
       <c r="G5">
-        <v>379268.3842201836</v>
+        <v>379268.38422018359</v>
       </c>
       <c r="H5">
         <v>157826.3268256881</v>
       </c>
       <c r="I5">
-        <v>145765.7933944954</v>
+        <v>145765.79339449541</v>
       </c>
       <c r="J5">
-        <v>125143.9992660551</v>
+        <v>125143.99926605511</v>
       </c>
     </row>
   </sheetData>
@@ -913,171 +1125,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2">
+        <v>3404.7</v>
+      </c>
+      <c r="C2">
+        <v>4120.6000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3">
+        <v>8665.9</v>
+      </c>
+      <c r="C3">
+        <v>10095.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4">
+        <v>5695.1</v>
+      </c>
+      <c r="C4">
+        <v>5021.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5">
+        <v>2235.4</v>
+      </c>
+      <c r="C5">
+        <v>1720.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6">
+        <v>12502.9</v>
+      </c>
+      <c r="C6">
+        <v>9719.2999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B7">
+        <v>3344.7000000000012</v>
+      </c>
+      <c r="C7">
+        <v>3205.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B8">
+        <v>6581.6</v>
+      </c>
+      <c r="C8">
+        <v>7578.9000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B9">
+        <v>5240.1000000000004</v>
+      </c>
+      <c r="C9">
+        <v>5087.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B10">
+        <v>6205.6000000000013</v>
+      </c>
+      <c r="C10">
+        <v>5816.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1689</v>
-      </c>
-      <c r="B2">
-        <v>5826</v>
-      </c>
-      <c r="C2">
-        <v>3583</v>
-      </c>
-      <c r="D2">
-        <v>1437</v>
-      </c>
-      <c r="E2">
-        <v>9284</v>
-      </c>
-      <c r="F2">
-        <v>2897</v>
-      </c>
-      <c r="G2">
-        <v>4640</v>
-      </c>
-      <c r="H2">
-        <v>2436</v>
-      </c>
-      <c r="I2">
-        <v>2962</v>
-      </c>
-      <c r="J2">
-        <v>6578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1206</v>
-      </c>
-      <c r="B3">
-        <v>4295</v>
-      </c>
-      <c r="C3">
-        <v>3798</v>
-      </c>
-      <c r="D3">
-        <v>932</v>
-      </c>
-      <c r="E3">
-        <v>4038</v>
-      </c>
-      <c r="F3">
-        <v>2339</v>
-      </c>
-      <c r="G3">
-        <v>4964</v>
-      </c>
-      <c r="H3">
-        <v>3662</v>
-      </c>
-      <c r="I3">
-        <v>4255</v>
-      </c>
-      <c r="J3">
-        <v>6456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3263</v>
-      </c>
-      <c r="B4">
-        <v>6129</v>
-      </c>
-      <c r="C4">
-        <v>3229</v>
-      </c>
-      <c r="D4">
-        <v>1841</v>
-      </c>
-      <c r="E4">
-        <v>7446</v>
-      </c>
-      <c r="F4">
-        <v>1818</v>
-      </c>
-      <c r="G4">
-        <v>3384</v>
-      </c>
-      <c r="H4">
-        <v>2208</v>
-      </c>
-      <c r="I4">
-        <v>2003</v>
-      </c>
-      <c r="J4">
-        <v>12286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>2272</v>
-      </c>
-      <c r="B5">
-        <v>7868</v>
-      </c>
-      <c r="C5">
-        <v>2355</v>
-      </c>
-      <c r="D5">
-        <v>1439</v>
-      </c>
-      <c r="E5">
-        <v>15436</v>
-      </c>
-      <c r="F5">
-        <v>3007</v>
-      </c>
-      <c r="G5">
-        <v>4048</v>
-      </c>
-      <c r="H5">
-        <v>4180</v>
-      </c>
-      <c r="I5">
-        <v>3081</v>
-      </c>
-      <c r="J5">
-        <v>9034</v>
+      <c r="B11">
+        <v>10812.6</v>
+      </c>
+      <c r="C11">
+        <v>13810.8</v>
       </c>
     </row>
   </sheetData>
@@ -1086,14 +1264,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,132 +1303,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2025</v>
+        <v>1689</v>
       </c>
       <c r="B2">
-        <v>6704</v>
+        <v>5826</v>
       </c>
       <c r="C2">
-        <v>3907</v>
+        <v>3583</v>
       </c>
       <c r="D2">
-        <v>826</v>
+        <v>1437</v>
       </c>
       <c r="E2">
-        <v>3784</v>
+        <v>9284</v>
       </c>
       <c r="F2">
-        <v>2285</v>
+        <v>2897</v>
       </c>
       <c r="G2">
-        <v>3686</v>
+        <v>4640</v>
       </c>
       <c r="H2">
-        <v>3446</v>
+        <v>2436</v>
       </c>
       <c r="I2">
-        <v>1669</v>
+        <v>2962</v>
       </c>
       <c r="J2">
-        <v>7388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2412</v>
+        <v>1206</v>
       </c>
       <c r="B3">
-        <v>3720</v>
+        <v>4295</v>
       </c>
       <c r="C3">
-        <v>2830</v>
+        <v>3798</v>
       </c>
       <c r="D3">
-        <v>668</v>
+        <v>932</v>
       </c>
       <c r="E3">
-        <v>3804</v>
+        <v>4038</v>
       </c>
       <c r="F3">
-        <v>1399</v>
+        <v>2339</v>
       </c>
       <c r="G3">
-        <v>4680</v>
+        <v>4964</v>
       </c>
       <c r="H3">
-        <v>2974</v>
+        <v>3662</v>
       </c>
       <c r="I3">
-        <v>1109</v>
+        <v>4255</v>
       </c>
       <c r="J3">
-        <v>8360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2410</v>
+        <v>3263</v>
       </c>
       <c r="B4">
-        <v>7342</v>
+        <v>6129</v>
       </c>
       <c r="C4">
-        <v>6045</v>
+        <v>3229</v>
       </c>
       <c r="D4">
-        <v>1625</v>
+        <v>1841</v>
       </c>
       <c r="E4">
-        <v>5537</v>
+        <v>7446</v>
       </c>
       <c r="F4">
-        <v>2183</v>
+        <v>1818</v>
       </c>
       <c r="G4">
-        <v>5569</v>
+        <v>3384</v>
       </c>
       <c r="H4">
-        <v>2682</v>
+        <v>2208</v>
       </c>
       <c r="I4">
-        <v>4584</v>
+        <v>2003</v>
       </c>
       <c r="J4">
-        <v>7336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>12286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2490</v>
+        <v>2272</v>
       </c>
       <c r="B5">
-        <v>6453</v>
+        <v>7868</v>
       </c>
       <c r="C5">
-        <v>2870</v>
+        <v>2355</v>
       </c>
       <c r="D5">
-        <v>1180</v>
+        <v>1439</v>
       </c>
       <c r="E5">
-        <v>6780</v>
+        <v>15436</v>
       </c>
       <c r="F5">
-        <v>2681</v>
+        <v>3007</v>
       </c>
       <c r="G5">
-        <v>5185</v>
+        <v>4048</v>
       </c>
       <c r="H5">
-        <v>2993</v>
+        <v>4180</v>
       </c>
       <c r="I5">
-        <v>3428</v>
+        <v>3081</v>
       </c>
       <c r="J5">
-        <v>6690</v>
+        <v>9034</v>
       </c>
     </row>
   </sheetData>
@@ -1259,14 +1437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1298,132 +1476,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6704</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3907</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3784</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2285</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3686</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3446</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1669</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>7388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>2412</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3720</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2830</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3804</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4680</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2974</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>2410</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7342</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6045</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5537</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2183</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5569</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2682</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4584</v>
       </c>
       <c r="J4">
-        <v>2584.099999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>7336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>2490</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6453</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2870</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6780</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2681</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5185</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2993</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3428</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6690</v>
       </c>
     </row>
   </sheetData>
@@ -1432,14 +1610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1471,132 +1649,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3404.7</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>8665.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5695.1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2235.4</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>12502.9</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3344.700000000001</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6581.6</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5240.1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6205.600000000001</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10812.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-101.9400000000001</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>727.5500000000002</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>842.9499999999998</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>26.71999999999998</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>163.8199999999997</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3344.700000000001</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6581.6</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>428.9499999999998</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>505.6999999999994</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1110.699999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3404.7</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>8665.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5695.1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2235.4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>12502.9</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>182.2999999999993</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-35.04000000000015</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5240.1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>6205.600000000001</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10812.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>2584.0999999999972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3404.7</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>8665.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>365.9249999999997</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2235.4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>12502.9</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3344.700000000001</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6581.6</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>788.4249999999997</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-123.1800000000005</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10812.6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1605,14 +1783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1644,132 +1822,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>38.2688990825688</v>
+        <v>3404.7</v>
       </c>
       <c r="B2">
-        <v>27.63587155963303</v>
+        <v>8665.9</v>
       </c>
       <c r="C2">
-        <v>42.52211009174312</v>
+        <v>5695.1</v>
       </c>
       <c r="D2">
-        <v>70.16798165137615</v>
+        <v>2235.4</v>
       </c>
       <c r="E2">
-        <v>34.01568807339449</v>
+        <v>12502.9</v>
       </c>
       <c r="F2">
-        <v>59.54495412844037</v>
+        <v>3344.7000000000012</v>
       </c>
       <c r="G2">
-        <v>95.68724770642201</v>
+        <v>6581.6</v>
       </c>
       <c r="H2">
-        <v>65.91477064220183</v>
+        <v>5240.1000000000004</v>
       </c>
       <c r="I2">
-        <v>42.52211009174312</v>
+        <v>6205.6000000000013</v>
       </c>
       <c r="J2">
-        <v>23.38266055045872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>10812.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>30.61511926605504</v>
+        <v>-101.9400000000001</v>
       </c>
       <c r="B3">
-        <v>22.10869724770643</v>
+        <v>727.55000000000018</v>
       </c>
       <c r="C3">
-        <v>34.0176880733945</v>
+        <v>842.94999999999982</v>
       </c>
       <c r="D3">
-        <v>56.13438532110092</v>
+        <v>26.719999999999981</v>
       </c>
       <c r="E3">
-        <v>27.2125504587156</v>
+        <v>163.81999999999971</v>
       </c>
       <c r="F3">
-        <v>59.54495412844037</v>
+        <v>3344.7000000000012</v>
       </c>
       <c r="G3">
-        <v>76.54979816513762</v>
+        <v>6581.6</v>
       </c>
       <c r="H3">
-        <v>52.73181651376147</v>
+        <v>428.94999999999982</v>
       </c>
       <c r="I3">
-        <v>34.0176880733945</v>
+        <v>505.69999999999942</v>
       </c>
       <c r="J3">
-        <v>18.70612844036697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>1110.6999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>38.2688990825688</v>
+        <v>3404.7</v>
       </c>
       <c r="B4">
-        <v>27.63587155963303</v>
+        <v>8665.9</v>
       </c>
       <c r="C4">
-        <v>42.52211009174312</v>
+        <v>5695.1</v>
       </c>
       <c r="D4">
-        <v>70.16798165137615</v>
+        <v>2235.4</v>
       </c>
       <c r="E4">
-        <v>34.01568807339449</v>
+        <v>12502.9</v>
       </c>
       <c r="F4">
-        <v>47.6359633027523</v>
+        <v>182.2999999999993</v>
       </c>
       <c r="G4">
-        <v>76.54979816513762</v>
+        <v>-35.040000000000148</v>
       </c>
       <c r="H4">
-        <v>65.91477064220183</v>
+        <v>5240.1000000000004</v>
       </c>
       <c r="I4">
-        <v>42.52211009174312</v>
+        <v>6205.6000000000013</v>
       </c>
       <c r="J4">
-        <v>23.38266055045872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>10812.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>38.2688990825688</v>
+        <v>3404.7</v>
       </c>
       <c r="B5">
-        <v>22.10869724770643</v>
+        <v>8665.9</v>
       </c>
       <c r="C5">
-        <v>34.0176880733945</v>
+        <v>365.92499999999973</v>
       </c>
       <c r="D5">
-        <v>70.16798165137615</v>
+        <v>2235.4</v>
       </c>
       <c r="E5">
-        <v>27.2125504587156</v>
+        <v>12502.9</v>
       </c>
       <c r="F5">
-        <v>59.54495412844037</v>
+        <v>3344.7000000000012</v>
       </c>
       <c r="G5">
-        <v>95.68724770642201</v>
+        <v>6581.6</v>
       </c>
       <c r="H5">
-        <v>52.73181651376147</v>
+        <v>788.42499999999973</v>
       </c>
       <c r="I5">
-        <v>34.0176880733945</v>
+        <v>-123.1800000000005</v>
       </c>
       <c r="J5">
-        <v>23.38266055045872</v>
+        <v>10812.6</v>
       </c>
     </row>
   </sheetData>
@@ -1778,14 +1956,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1817,132 +1997,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>64636.17055045871</v>
+        <v>38.268899082568801</v>
       </c>
       <c r="B2">
-        <v>161006.5877064221</v>
+        <v>27.635871559633031</v>
       </c>
       <c r="C2">
-        <v>152356.7204587156</v>
+        <v>42.522110091743123</v>
       </c>
       <c r="D2">
-        <v>100831.3896330275</v>
+        <v>70.167981651376152</v>
       </c>
       <c r="E2">
-        <v>315801.6480733945</v>
+        <v>34.015688073394493</v>
       </c>
       <c r="F2">
-        <v>172501.7321100918</v>
+        <v>59.544954128440367</v>
       </c>
       <c r="G2">
-        <v>443988.8293577982</v>
+        <v>95.687247706422013</v>
       </c>
       <c r="H2">
-        <v>160568.3812844037</v>
+        <v>65.91477064220183</v>
       </c>
       <c r="I2">
-        <v>125950.4900917431</v>
+        <v>42.522110091743123</v>
       </c>
       <c r="J2">
-        <v>153811.1411009174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>23.38266055045872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>36921.83383486238</v>
+        <v>30.615119266055039</v>
       </c>
       <c r="B3">
-        <v>94956.85467889911</v>
+        <v>22.108697247706431</v>
       </c>
       <c r="C3">
-        <v>129199.1793027523</v>
+        <v>34.017688073394503</v>
       </c>
       <c r="D3">
-        <v>52317.24711926606</v>
+        <v>56.134385321100922</v>
       </c>
       <c r="E3">
-        <v>109884.2787522936</v>
+        <v>27.212550458715601</v>
       </c>
       <c r="F3">
-        <v>139275.647706422</v>
+        <v>59.544954128440367</v>
       </c>
       <c r="G3">
-        <v>379993.1980917431</v>
+        <v>76.549798165137616</v>
       </c>
       <c r="H3">
-        <v>193103.9120733945</v>
+        <v>52.731816513761473</v>
       </c>
       <c r="I3">
-        <v>144745.2627522936</v>
+        <v>34.017688073394503</v>
       </c>
       <c r="J3">
-        <v>120766.7652110092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>18.706128440366971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>124871.417706422</v>
+        <v>38.268899082568801</v>
       </c>
       <c r="B4">
-        <v>169380.2567889908</v>
+        <v>27.635871559633031</v>
       </c>
       <c r="C4">
-        <v>137303.8934862385</v>
+        <v>42.522110091743123</v>
       </c>
       <c r="D4">
-        <v>129179.2542201835</v>
+        <v>70.167981651376152</v>
       </c>
       <c r="E4">
-        <v>253280.8133944954</v>
+        <v>34.015688073394493</v>
       </c>
       <c r="F4">
-        <v>86602.18128440369</v>
+        <v>47.635963302752302</v>
       </c>
       <c r="G4">
-        <v>259044.5169908257</v>
+        <v>76.549798165137616</v>
       </c>
       <c r="H4">
-        <v>145539.8135779816</v>
+        <v>65.91477064220183</v>
       </c>
       <c r="I4">
-        <v>85171.78651376146</v>
+        <v>42.522110091743123</v>
       </c>
       <c r="J4">
-        <v>226856.2343944955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>23.38266055045872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>86946.93871559632</v>
+        <v>38.268899082568801</v>
       </c>
       <c r="B5">
-        <v>173951.2299449542</v>
+        <v>22.108697247706431</v>
       </c>
       <c r="C5">
-        <v>80111.65541284403</v>
+        <v>34.017688073394503</v>
       </c>
       <c r="D5">
-        <v>100971.7255963303</v>
+        <v>70.167981651376152</v>
       </c>
       <c r="E5">
-        <v>420052.928880734</v>
+        <v>27.212550458715601</v>
       </c>
       <c r="F5">
-        <v>179051.6770642202</v>
+        <v>59.544954128440367</v>
       </c>
       <c r="G5">
-        <v>387341.9787155963</v>
+        <v>95.687247706422013</v>
       </c>
       <c r="H5">
-        <v>220418.9930275229</v>
+        <v>52.731816513761473</v>
       </c>
       <c r="I5">
-        <v>104808.4969541284</v>
+        <v>34.017688073394503</v>
       </c>
       <c r="J5">
-        <v>211238.9554128441</v>
+        <v>23.38266055045872</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +2131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1990,132 +2170,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>64636.170550458708</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>161006.58770642211</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>152356.7204587156</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>100831.3896330275</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>315801.64807339449</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>172501.73211009181</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>443988.82935779821</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>160568.3812844037</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>125950.49009174309</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>153811.14110091739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>36921.83383486238</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>94956.854678899108</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>129199.17930275229</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>52317.24711926606</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>109884.2787522936</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>139275.64770642199</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>379993.19809174311</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>193103.91207339449</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>144745.26275229361</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>120766.7652110092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>124871.417706422</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>169380.25678899081</v>
       </c>
       <c r="C4">
-        <v>1881.700000000001</v>
+        <v>137303.89348623849</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>129179.2542201835</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>253280.8133944954</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>86602.18128440369</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>259044.51699082571</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>145539.81357798161</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>85171.786513761457</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>226856.23439449549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>86946.93871559632</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>173951.22994495419</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>80111.655412844033</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>100971.7255963303</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>420052.92888073402</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>179051.67706422019</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>387341.97871559631</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>220418.9930275229</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>104808.49695412839</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>211238.95541284411</v>
       </c>
     </row>
   </sheetData>
@@ -2124,14 +2304,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2163,132 +2343,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>4120.6</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>10095.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5021.2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1720.6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1892</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3205.3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7578.900000000001</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5087.3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>834.5</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13810.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>63.27999999999993</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>65.62000000000008</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>857.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-45.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9719.299999999999</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>239.3499999999999</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>393.5499999999997</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>666.3499999999999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>971.75</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>968.6000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4120.6</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>10095.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5021.2</v>
+        <v>1881.700000000001</v>
       </c>
       <c r="D4">
-        <v>1720.6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>756.8500000000004</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3205.3</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7578.900000000001</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5087.3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>5816.5</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13810.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>516.2599999999998</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1980.79</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5021.2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1720.6</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>9719.299999999999</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3205.3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>7578.900000000001</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>627.0249999999996</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5816.5</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>236.7599999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
